--- a/exceli_iz_clankov/Dakskobler_2018_merged.xlsx
+++ b/exceli_iz_clankov/Dakskobler_2018_merged.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miha Rupar\Desktop\python\jernej-diplomska\Species-finder\exceli_iz_clankov\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9D8CF-E929-4F21-B194-D0DF9E6BC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="s7DX8VMGUUjOCVjqiuVLdLCGrIHr51hd8ClTbSUpmIY="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="343">
   <si>
     <t>Column1</t>
   </si>
@@ -1050,27 +1059,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1080,11 +1091,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1098,36 +1115,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1317,25 +1336,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="33.57"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1515,12 +1536,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
@@ -1570,7 +1591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1626,7 +1647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1682,7 +1703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
@@ -1738,7 +1759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
@@ -1794,7 +1815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>97</v>
       </c>
@@ -1850,7 +1871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>100</v>
       </c>
@@ -1906,7 +1927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
@@ -1965,12 +1986,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>110</v>
       </c>
@@ -2029,12 +2050,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
@@ -2090,7 +2111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>123</v>
       </c>
@@ -2149,7 +2170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
@@ -2205,7 +2226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>133</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
@@ -2376,7 +2397,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>168</v>
       </c>
@@ -2435,7 +2456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
@@ -2446,7 +2467,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
@@ -2514,7 +2535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>191</v>
       </c>
@@ -2582,7 +2603,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>195</v>
       </c>
@@ -2650,7 +2671,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>202</v>
       </c>
@@ -2786,7 +2807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>189</v>
       </c>
@@ -2794,7 +2815,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>206</v>
       </c>
@@ -2859,7 +2880,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>207</v>
       </c>
@@ -2924,7 +2945,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>209</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>211</v>
       </c>
@@ -3054,7 +3075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
@@ -3119,7 +3140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>213</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>214</v>
       </c>
@@ -3192,7 +3213,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>216</v>
       </c>
@@ -3257,7 +3278,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>217</v>
       </c>
@@ -3322,7 +3343,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3387,7 +3408,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>219</v>
       </c>
@@ -3452,7 +3473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
@@ -3517,7 +3538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>221</v>
       </c>
@@ -3582,7 +3603,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>223</v>
       </c>
@@ -3647,7 +3668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>225</v>
       </c>
@@ -3712,7 +3733,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>226</v>
       </c>
@@ -3777,7 +3798,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>227</v>
       </c>
@@ -3842,7 +3863,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>228</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>229</v>
       </c>
@@ -3972,7 +3993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>230</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>231</v>
       </c>
@@ -4102,7 +4123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>232</v>
       </c>
@@ -4167,7 +4188,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>234</v>
       </c>
@@ -4232,7 +4253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>235</v>
       </c>
@@ -4297,7 +4318,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>236</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>237</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>238</v>
       </c>
@@ -4492,7 +4513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>239</v>
       </c>
@@ -4557,7 +4578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
@@ -4622,7 +4643,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>241</v>
       </c>
@@ -4687,7 +4708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>242</v>
       </c>
@@ -4752,7 +4773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>243</v>
       </c>
@@ -4817,7 +4838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>244</v>
       </c>
@@ -4882,7 +4903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>245</v>
       </c>
@@ -4947,7 +4968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>246</v>
       </c>
@@ -5012,7 +5033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>247</v>
       </c>
@@ -5077,7 +5098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>248</v>
       </c>
@@ -5142,7 +5163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>249</v>
       </c>
@@ -5207,7 +5228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>250</v>
       </c>
@@ -5272,7 +5293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>251</v>
       </c>
@@ -5337,7 +5358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>252</v>
       </c>
@@ -5402,7 +5423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>253</v>
       </c>
@@ -5467,7 +5488,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>254</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>255</v>
       </c>
@@ -5597,7 +5618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>256</v>
       </c>
@@ -5662,7 +5683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>257</v>
       </c>
@@ -5727,7 +5748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>258</v>
       </c>
@@ -5792,7 +5813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>259</v>
       </c>
@@ -5857,7 +5878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>260</v>
       </c>
@@ -5922,7 +5943,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>261</v>
       </c>
@@ -5987,7 +6008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>262</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>263</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>264</v>
       </c>
@@ -6182,7 +6203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>265</v>
       </c>
@@ -6247,7 +6268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>266</v>
       </c>
@@ -6312,7 +6333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>267</v>
       </c>
@@ -6377,7 +6398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>268</v>
       </c>
@@ -6442,7 +6463,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>269</v>
       </c>
@@ -6507,7 +6528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>270</v>
       </c>
@@ -6572,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>271</v>
       </c>
@@ -6637,7 +6658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>272</v>
       </c>
@@ -6702,7 +6723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>273</v>
       </c>
@@ -6767,7 +6788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>274</v>
       </c>
@@ -6832,7 +6853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>275</v>
       </c>
@@ -6897,7 +6918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>276</v>
       </c>
@@ -6962,7 +6983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>277</v>
       </c>
@@ -7027,7 +7048,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>278</v>
       </c>
@@ -7092,7 +7113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>279</v>
       </c>
@@ -7157,7 +7178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>280</v>
       </c>
@@ -7222,7 +7243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>281</v>
       </c>
@@ -7287,7 +7308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>282</v>
       </c>
@@ -7352,7 +7373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>283</v>
       </c>
@@ -7417,7 +7438,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>285</v>
       </c>
@@ -7482,7 +7503,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>286</v>
       </c>
@@ -7547,7 +7568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>287</v>
       </c>
@@ -7612,166 +7633,169 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>22</v>
+        <v>288</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L105" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="R105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="V105" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>112</v>
@@ -7780,13 +7804,13 @@
         <v>112</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="R107" s="2" t="s">
         <v>112</v>
@@ -7798,15 +7822,15 @@
         <v>112</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>104</v>
@@ -7818,10 +7842,10 @@
         <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>112</v>
@@ -7830,10 +7854,10 @@
         <v>112</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>112</v>
@@ -7842,10 +7866,10 @@
         <v>112</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>112</v>
@@ -7863,265 +7887,268 @@
         <v>112</v>
       </c>
       <c r="U108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V116" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U109" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V109" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V113" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V115" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>112</v>
@@ -8148,7 +8175,7 @@
         <v>112</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>112</v>
@@ -8178,88 +8205,88 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V118" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>104</v>
@@ -8268,7 +8295,7 @@
         <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>112</v>
@@ -8283,10 +8310,10 @@
         <v>112</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>112</v>
@@ -8307,27 +8334,27 @@
         <v>112</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>112</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>104</v>
@@ -8345,16 +8372,16 @@
         <v>112</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>112</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>112</v>
@@ -8384,18 +8411,18 @@
         <v>112</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>104</v>
@@ -8413,7 +8440,7 @@
         <v>112</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>112</v>
@@ -8437,7 +8464,7 @@
         <v>112</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>112</v>
@@ -8458,12 +8485,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>104</v>
@@ -8526,12 +8553,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>104</v>
@@ -8594,12 +8621,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>104</v>
@@ -8662,12 +8689,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>104</v>
@@ -8730,235 +8757,237 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V127" s="2" t="s">
+      <c r="D128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V128" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>324</v>
+        <v>202</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U129" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U132" s="2" t="s">
+      <c r="D131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V132" s="2" t="s">
+      <c r="V131" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V132" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>111</v>
@@ -8967,7 +8996,7 @@
         <v>112</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>112</v>
@@ -8979,7 +9008,7 @@
         <v>112</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>112</v>
@@ -8997,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>112</v>
@@ -9015,20 +9044,20 @@
         <v>112</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V133" s="3" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>111</v>
@@ -9095,10 +9124,10 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>111</v>
@@ -9107,7 +9136,7 @@
         <v>112</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>112</v>
@@ -9119,7 +9148,7 @@
         <v>112</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>112</v>
@@ -9149,7 +9178,7 @@
         <v>112</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="T135" s="3" t="s">
         <v>112</v>
@@ -9165,10 +9194,10 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>111</v>
@@ -9177,7 +9206,7 @@
         <v>112</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>112</v>
@@ -9189,7 +9218,7 @@
         <v>112</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>112</v>
@@ -9198,10 +9227,10 @@
         <v>112</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>112</v>
@@ -9219,26 +9248,26 @@
         <v>112</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="T136" s="3" t="s">
         <v>112</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V136" s="3" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>111</v>
@@ -9268,7 +9297,7 @@
         <v>112</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>23</v>
@@ -9289,7 +9318,7 @@
         <v>112</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="T137" s="3" t="s">
         <v>112</v>
@@ -9305,10 +9334,10 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>111</v>
@@ -9341,13 +9370,13 @@
         <v>112</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N138" s="3" t="s">
         <v>112</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>112</v>
@@ -9375,10 +9404,10 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>111</v>
@@ -9387,7 +9416,7 @@
         <v>112</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>112</v>
@@ -9417,7 +9446,7 @@
         <v>112</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>112</v>
@@ -9429,26 +9458,26 @@
         <v>112</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="T139" s="3" t="s">
         <v>112</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V139" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>111</v>
@@ -9457,7 +9486,7 @@
         <v>112</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>112</v>
@@ -9487,7 +9516,7 @@
         <v>112</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>112</v>
@@ -9515,10 +9544,10 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>111</v>
@@ -9557,7 +9586,7 @@
         <v>112</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>112</v>
@@ -9585,10 +9614,10 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>111</v>
@@ -9655,10 +9684,10 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>111</v>
@@ -9697,7 +9726,7 @@
         <v>112</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>112</v>
@@ -9709,7 +9738,7 @@
         <v>112</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="T143" s="3" t="s">
         <v>112</v>
@@ -9725,10 +9754,10 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>111</v>
@@ -9795,920 +9824,848 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S145" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U145" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V145" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exceli_iz_clankov/Dakskobler_2018_merged.xlsx
+++ b/exceli_iz_clankov/Dakskobler_2018_merged.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miha Rupar\Desktop\python\jernej-diplomska\Species-finder\exceli_iz_clankov\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9D8CF-E929-4F21-B194-D0DF9E6BC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="s7DX8VMGUUjOCVjqiuVLdLCGrIHr51hd8ClTbSUpmIY="/>
@@ -25,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="343">
   <si>
     <t>Column1</t>
   </si>
@@ -1059,29 +1050,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1091,17 +1080,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1115,38 +1098,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1336,27 +1317,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z984"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="33.57"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1536,12 +1515,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
@@ -1591,7 +1570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1647,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1703,7 +1682,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
@@ -1759,7 +1738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
@@ -1815,7 +1794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="2" t="s">
         <v>97</v>
       </c>
@@ -1871,7 +1850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="2" t="s">
         <v>100</v>
       </c>
@@ -1927,7 +1906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="2" t="s">
         <v>103</v>
       </c>
@@ -1986,12 +1965,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="2" t="s">
         <v>110</v>
       </c>
@@ -2050,12 +2029,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
@@ -2111,7 +2090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="2" t="s">
         <v>123</v>
       </c>
@@ -2170,7 +2149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
@@ -2226,7 +2205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="2" t="s">
         <v>133</v>
       </c>
@@ -2282,7 +2261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
@@ -2338,7 +2317,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
@@ -2397,7 +2376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>168</v>
       </c>
@@ -2456,7 +2435,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
@@ -2467,7 +2446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
@@ -2535,7 +2514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>191</v>
       </c>
@@ -2603,7 +2582,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>195</v>
       </c>
@@ -2671,7 +2650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>199</v>
       </c>
@@ -2739,7 +2718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>202</v>
       </c>
@@ -2807,7 +2786,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>189</v>
       </c>
@@ -2815,7 +2794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>206</v>
       </c>
@@ -2880,7 +2859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>207</v>
       </c>
@@ -2945,7 +2924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="2" t="s">
         <v>209</v>
       </c>
@@ -3010,7 +2989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>211</v>
       </c>
@@ -3075,7 +3054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
@@ -3140,7 +3119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="2" t="s">
         <v>213</v>
       </c>
@@ -3205,7 +3184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>214</v>
       </c>
@@ -3213,7 +3192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>216</v>
       </c>
@@ -3278,7 +3257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="2" t="s">
         <v>217</v>
       </c>
@@ -3343,7 +3322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3408,7 +3387,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="2" t="s">
         <v>219</v>
       </c>
@@ -3473,7 +3452,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="2" t="s">
         <v>220</v>
       </c>
@@ -3538,7 +3517,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
         <v>221</v>
       </c>
@@ -3603,7 +3582,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="2" t="s">
         <v>223</v>
       </c>
@@ -3668,7 +3647,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="2" t="s">
         <v>225</v>
       </c>
@@ -3733,7 +3712,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="2" t="s">
         <v>226</v>
       </c>
@@ -3798,7 +3777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="2" t="s">
         <v>227</v>
       </c>
@@ -3863,7 +3842,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="2" t="s">
         <v>228</v>
       </c>
@@ -3928,7 +3907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="2" t="s">
         <v>229</v>
       </c>
@@ -3993,7 +3972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="2" t="s">
         <v>230</v>
       </c>
@@ -4058,7 +4037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>231</v>
       </c>
@@ -4123,7 +4102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>232</v>
       </c>
@@ -4188,7 +4167,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="2" t="s">
         <v>234</v>
       </c>
@@ -4253,7 +4232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="2" t="s">
         <v>235</v>
       </c>
@@ -4318,7 +4297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="2" t="s">
         <v>236</v>
       </c>
@@ -4383,7 +4362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="2" t="s">
         <v>237</v>
       </c>
@@ -4448,7 +4427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="2" t="s">
         <v>238</v>
       </c>
@@ -4513,7 +4492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="2" t="s">
         <v>239</v>
       </c>
@@ -4578,7 +4557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
@@ -4643,7 +4622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="2" t="s">
         <v>241</v>
       </c>
@@ -4708,7 +4687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="2" t="s">
         <v>242</v>
       </c>
@@ -4773,7 +4752,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="2" t="s">
         <v>243</v>
       </c>
@@ -4838,7 +4817,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="2" t="s">
         <v>244</v>
       </c>
@@ -4903,7 +4882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="2" t="s">
         <v>245</v>
       </c>
@@ -4968,7 +4947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="2" t="s">
         <v>246</v>
       </c>
@@ -5033,7 +5012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="2" t="s">
         <v>247</v>
       </c>
@@ -5098,7 +5077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="2" t="s">
         <v>248</v>
       </c>
@@ -5163,7 +5142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="2" t="s">
         <v>249</v>
       </c>
@@ -5228,7 +5207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="2" t="s">
         <v>250</v>
       </c>
@@ -5293,7 +5272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="2" t="s">
         <v>251</v>
       </c>
@@ -5358,7 +5337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>252</v>
       </c>
@@ -5423,7 +5402,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>253</v>
       </c>
@@ -5488,7 +5467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>254</v>
       </c>
@@ -5553,7 +5532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>255</v>
       </c>
@@ -5618,7 +5597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>256</v>
       </c>
@@ -5683,7 +5662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="2" t="s">
         <v>257</v>
       </c>
@@ -5748,7 +5727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="2" t="s">
         <v>258</v>
       </c>
@@ -5813,7 +5792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="2" t="s">
         <v>259</v>
       </c>
@@ -5878,7 +5857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="2" t="s">
         <v>260</v>
       </c>
@@ -5943,7 +5922,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="2" t="s">
         <v>261</v>
       </c>
@@ -6008,7 +5987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="2" t="s">
         <v>262</v>
       </c>
@@ -6073,7 +6052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="2" t="s">
         <v>263</v>
       </c>
@@ -6138,7 +6117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="2" t="s">
         <v>264</v>
       </c>
@@ -6203,7 +6182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="2" t="s">
         <v>265</v>
       </c>
@@ -6268,7 +6247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="2" t="s">
         <v>266</v>
       </c>
@@ -6333,7 +6312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="2" t="s">
         <v>267</v>
       </c>
@@ -6398,7 +6377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="2" t="s">
         <v>268</v>
       </c>
@@ -6463,7 +6442,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="2" t="s">
         <v>269</v>
       </c>
@@ -6528,7 +6507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="2" t="s">
         <v>270</v>
       </c>
@@ -6593,7 +6572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="2" t="s">
         <v>271</v>
       </c>
@@ -6658,7 +6637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="2" t="s">
         <v>272</v>
       </c>
@@ -6723,7 +6702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="2" t="s">
         <v>273</v>
       </c>
@@ -6788,7 +6767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>274</v>
       </c>
@@ -6853,7 +6832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="2" t="s">
         <v>275</v>
       </c>
@@ -6918,7 +6897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="2" t="s">
         <v>276</v>
       </c>
@@ -6983,7 +6962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="2" t="s">
         <v>277</v>
       </c>
@@ -7048,7 +7027,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="2" t="s">
         <v>278</v>
       </c>
@@ -7113,7 +7092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="2" t="s">
         <v>279</v>
       </c>
@@ -7178,7 +7157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="2" t="s">
         <v>280</v>
       </c>
@@ -7243,7 +7222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>281</v>
       </c>
@@ -7308,7 +7287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="2" t="s">
         <v>282</v>
       </c>
@@ -7373,7 +7352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="2" t="s">
         <v>283</v>
       </c>
@@ -7438,7 +7417,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>285</v>
       </c>
@@ -7503,7 +7482,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>286</v>
       </c>
@@ -7568,7 +7547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>287</v>
       </c>
@@ -7633,169 +7612,166 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R105" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V105" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L106" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>112</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>112</v>
@@ -7804,13 +7780,13 @@
         <v>112</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="R107" s="2" t="s">
         <v>112</v>
@@ -7822,15 +7798,15 @@
         <v>112</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>104</v>
@@ -7842,10 +7818,10 @@
         <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>112</v>
@@ -7854,10 +7830,10 @@
         <v>112</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>112</v>
@@ -7866,289 +7842,286 @@
         <v>112</v>
       </c>
       <c r="N108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U108" s="2" t="s">
+      <c r="O109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V108" s="2" t="s">
+      <c r="V109" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H112" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q112" s="2" t="s">
+      <c r="I113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R112" s="2" t="s">
+      <c r="R113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T112" s="2" t="s">
+      <c r="S113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U112" s="2" t="s">
+      <c r="U113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V112" s="2" t="s">
+      <c r="V113" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U114" s="2" t="s">
+      <c r="D115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U115" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V114" s="2" t="s">
+      <c r="V115" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>112</v>
@@ -8175,7 +8148,7 @@
         <v>112</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>112</v>
@@ -8205,88 +8178,88 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V119" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>104</v>
@@ -8295,7 +8268,7 @@
         <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>112</v>
@@ -8310,10 +8283,10 @@
         <v>112</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>112</v>
@@ -8334,27 +8307,27 @@
         <v>112</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>112</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>104</v>
@@ -8372,16 +8345,16 @@
         <v>112</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>112</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>112</v>
@@ -8411,18 +8384,18 @@
         <v>112</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>104</v>
@@ -8440,7 +8413,7 @@
         <v>112</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>112</v>
@@ -8464,7 +8437,7 @@
         <v>112</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>112</v>
@@ -8485,12 +8458,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>104</v>
@@ -8553,12 +8526,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>104</v>
@@ -8621,12 +8594,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>104</v>
@@ -8689,12 +8662,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>104</v>
@@ -8757,237 +8730,235 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="D129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V128" s="2" t="s">
+      <c r="H129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V129" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U131" s="2" t="s">
+      <c r="D132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U132" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V131" s="2" t="s">
+      <c r="V132" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O132" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U132" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V132" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>111</v>
@@ -8996,7 +8967,7 @@
         <v>112</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>112</v>
@@ -9008,7 +8979,7 @@
         <v>112</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>112</v>
@@ -9026,7 +8997,7 @@
         <v>112</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>112</v>
@@ -9044,20 +9015,20 @@
         <v>112</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V133" s="3" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>111</v>
@@ -9124,10 +9095,10 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>111</v>
@@ -9136,7 +9107,7 @@
         <v>112</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>112</v>
@@ -9148,7 +9119,7 @@
         <v>112</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>112</v>
@@ -9178,7 +9149,7 @@
         <v>112</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="T135" s="3" t="s">
         <v>112</v>
@@ -9194,10 +9165,10 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>111</v>
@@ -9206,7 +9177,7 @@
         <v>112</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>112</v>
@@ -9218,7 +9189,7 @@
         <v>112</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>112</v>
@@ -9227,10 +9198,10 @@
         <v>112</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>112</v>
@@ -9248,26 +9219,26 @@
         <v>112</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="T136" s="3" t="s">
         <v>112</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V136" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>111</v>
@@ -9297,7 +9268,7 @@
         <v>112</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="M137" s="3" t="s">
         <v>23</v>
@@ -9318,7 +9289,7 @@
         <v>112</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="T137" s="3" t="s">
         <v>112</v>
@@ -9334,10 +9305,10 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>111</v>
@@ -9370,13 +9341,13 @@
         <v>112</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N138" s="3" t="s">
         <v>112</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>112</v>
@@ -9404,10 +9375,10 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>111</v>
@@ -9416,7 +9387,7 @@
         <v>112</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>112</v>
@@ -9446,7 +9417,7 @@
         <v>112</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>112</v>
@@ -9458,26 +9429,26 @@
         <v>112</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="T139" s="3" t="s">
         <v>112</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V139" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>111</v>
@@ -9486,7 +9457,7 @@
         <v>112</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>112</v>
@@ -9516,7 +9487,7 @@
         <v>112</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>112</v>
@@ -9544,10 +9515,10 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>111</v>
@@ -9586,7 +9557,7 @@
         <v>112</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>112</v>
@@ -9614,10 +9585,10 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>111</v>
@@ -9684,10 +9655,10 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>111</v>
@@ -9726,7 +9697,7 @@
         <v>112</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>112</v>
@@ -9738,7 +9709,7 @@
         <v>112</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="T143" s="3" t="s">
         <v>112</v>
@@ -9754,10 +9725,10 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>111</v>
@@ -9824,848 +9795,920 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>